--- a/StructureDefinition-cbs-vaccination-ACIP-Recommendation.xlsx
+++ b/StructureDefinition-cbs-vaccination-ACIP-Recommendation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2018" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="452">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -440,21 +440,21 @@
     <t>Observation.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -464,28 +464,7 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>reasonNotVaccinated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://cbsig.chai.gatech.edu/StructureDefinition/cbs-reason-not-vaccinated-per-ACIP-recommendations}
-</t>
-  </si>
-  <si>
-    <t>Case Based Surveillance Reason Not Vaccinated Per ACIP Recommendations</t>
-  </si>
-  <si>
-    <t>Program specific time window.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>Observation.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
   </si>
   <si>
     <t>Extensions that cannot be ignored</t>
@@ -493,9 +472,6 @@
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -718,7 +694,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://cbsig.chai.gatech.edu/StructureDefinition/cbs-patient)
+    <t xml:space="preserve">Reference(http://cbsig.chai.gatech.edu/StructureDefinition/us-cbs-patient)
 </t>
   </si>
   <si>
@@ -749,7 +725,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://cbsig.chai.gatech.edu/StructureDefinition/cbs-vaccination-record)
+    <t xml:space="preserve">Reference(http://cbsig.chai.gatech.edu/StructureDefinition/us-cbs-immunization|http://cbsig.chai.gatech.edu/StructureDefinition/us-cbs-condition)
 </t>
   </si>
   <si>
@@ -1185,9 +1161,6 @@
   </si>
   <si>
     <t>Observation.referenceRange.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
@@ -1416,6 +1389,15 @@
     <t>*All* code-value and  component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
   </si>
   <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="urn:oid:2.16.840.1.114222.4.5.232"/&gt;
+    &lt;code value="vac149"/&gt;
+    &lt;display value="Reason Not Vaccinated per ACIP Recommendations"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
     <t>&lt; 363787002 |Observable entity| OR  &lt; 386053000 |Evaluation procedure|</t>
   </si>
@@ -1423,10 +1405,6 @@
     <t>Observation.component.value[x]</t>
   </si>
   <si>
-    <t>Quantity
-CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
-  </si>
-  <si>
     <t>Actual component result</t>
   </si>
   <si>
@@ -1434,6 +1412,9 @@
   </si>
   <si>
     <t>363714003 |Interprets| &lt; 441742003 |Evaluation finding|</t>
+  </si>
+  <si>
+    <t>http://phinvads.cdc.gov/fhir/ValueSet/2.16.840.1.114222.4.11.931</t>
   </si>
   <si>
     <t>Observation.component.dataAbsentReason</t>
@@ -1799,7 +1780,7 @@
     <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="68.09765625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="65.69140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2780,7 +2761,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2799,15 +2780,17 @@
         <v>82</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>82</v>
@@ -2844,14 +2827,16 @@
         <v>82</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AB9" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AC9" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>142</v>
@@ -2878,7 +2863,7 @@
         <v>82</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>82</v>
@@ -2889,41 +2874,43 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="B10" t="s" s="2">
         <v>144</v>
       </c>
+      <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
         <v>80</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>82</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>82</v>
       </c>
@@ -2971,7 +2958,7 @@
         <v>82</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>80</v>
@@ -2980,7 +2967,7 @@
         <v>81</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>143</v>
@@ -2995,7 +2982,7 @@
         <v>82</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>82</v>
@@ -3010,7 +2997,7 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -3023,13 +3010,13 @@
         <v>82</v>
       </c>
       <c r="H11" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I11" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="I11" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J11" t="s" s="2">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>151</v>
@@ -3037,11 +3024,9 @@
       <c r="L11" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="M11" s="2"/>
+      <c r="N11" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>82</v>
@@ -3090,7 +3075,7 @@
         <v>82</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>80</v>
@@ -3102,22 +3087,22 @@
         <v>82</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>82</v>
+        <v>155</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>82</v>
@@ -3125,11 +3110,11 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>82</v>
+        <v>159</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -3148,17 +3133,17 @@
         <v>93</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>82</v>
@@ -3207,7 +3192,7 @@
         <v>82</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>80</v>
@@ -3222,19 +3207,19 @@
         <v>104</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>164</v>
+        <v>82</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>82</v>
@@ -3242,11 +3227,11 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -3265,18 +3250,18 @@
         <v>93</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M13" s="2"/>
-      <c r="N13" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>82</v>
       </c>
@@ -3324,7 +3309,7 @@
         <v>82</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>80</v>
@@ -3339,16 +3324,16 @@
         <v>104</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>82</v>
@@ -3359,30 +3344,30 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>175</v>
+        <v>82</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>82</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>93</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>176</v>
+        <v>112</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>177</v>
@@ -3393,7 +3378,9 @@
       <c r="M14" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="N14" s="2"/>
+      <c r="N14" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="O14" t="s" s="2">
         <v>82</v>
       </c>
@@ -3417,13 +3404,13 @@
         <v>82</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>82</v>
+        <v>181</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>82</v>
+        <v>182</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>82</v>
+        <v>183</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>82</v>
@@ -3441,13 +3428,13 @@
         <v>82</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>82</v>
@@ -3456,19 +3443,19 @@
         <v>104</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>82</v>
+        <v>185</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>82</v>
+        <v>188</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>82</v>
@@ -3476,7 +3463,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3484,34 +3471,34 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>112</v>
+        <v>190</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>82</v>
@@ -3536,37 +3523,37 @@
         <v>82</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>188</v>
+        <v>116</v>
       </c>
       <c r="X15" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE15" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="Y15" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>183</v>
-      </c>
       <c r="AF15" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>82</v>
@@ -3575,62 +3562,62 @@
         <v>104</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>191</v>
+        <v>82</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>192</v>
+        <v>82</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>193</v>
+        <v>82</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>82</v>
+        <v>200</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>82</v>
@@ -3640,7 +3627,7 @@
         <v>82</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>82</v>
@@ -3655,13 +3642,13 @@
         <v>82</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>116</v>
+        <v>206</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>82</v>
@@ -3679,13 +3666,13 @@
         <v>82</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>82</v>
@@ -3694,31 +3681,31 @@
         <v>104</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>82</v>
+        <v>209</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>82</v>
+        <v>210</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>82</v>
+        <v>211</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>82</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>207</v>
+        <v>82</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3737,19 +3724,19 @@
         <v>93</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>82</v>
@@ -3759,7 +3746,7 @@
         <v>82</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>212</v>
+        <v>82</v>
       </c>
       <c r="S17" t="s" s="2">
         <v>82</v>
@@ -3774,34 +3761,34 @@
         <v>82</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>213</v>
+        <v>82</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>214</v>
+        <v>82</v>
       </c>
       <c r="Y17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="Z17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>206</v>
-      </c>
       <c r="AF17" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>92</v>
@@ -3813,27 +3800,27 @@
         <v>104</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>217</v>
+        <v>82</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>221</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3844,7 +3831,7 @@
         <v>80</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>93</v>
@@ -3856,20 +3843,18 @@
         <v>93</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>82</v>
       </c>
@@ -3917,13 +3902,13 @@
         <v>82</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>82</v>
@@ -3932,41 +3917,41 @@
         <v>104</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>228</v>
+        <v>82</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>230</v>
       </c>
       <c r="AN18" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AO18" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" hidden="true">
+      <c r="A19" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AO18" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>82</v>
+        <v>232</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>82</v>
@@ -3986,7 +3971,9 @@
       <c r="M19" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="N19" s="2"/>
+      <c r="N19" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="O19" t="s" s="2">
         <v>82</v>
       </c>
@@ -4034,13 +4021,13 @@
         <v>82</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>82</v>
@@ -4049,19 +4036,19 @@
         <v>104</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>82</v>
+        <v>238</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>82</v>
@@ -4069,11 +4056,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -4092,19 +4079,19 @@
         <v>93</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>82</v>
@@ -4153,7 +4140,7 @@
         <v>82</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>80</v>
@@ -4168,19 +4155,19 @@
         <v>104</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>82</v>
@@ -4188,11 +4175,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>250</v>
+        <v>82</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4211,20 +4198,18 @@
         <v>93</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>82</v>
       </c>
@@ -4272,7 +4257,7 @@
         <v>82</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>80</v>
@@ -4287,19 +4272,19 @@
         <v>104</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>256</v>
+        <v>82</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>82</v>
@@ -4307,7 +4292,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4318,7 +4303,7 @@
         <v>80</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>82</v>
@@ -4330,18 +4315,18 @@
         <v>93</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="M22" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="N22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>82</v>
       </c>
@@ -4389,13 +4374,13 @@
         <v>82</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>82</v>
@@ -4404,19 +4389,19 @@
         <v>104</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>82</v>
+        <v>266</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>82</v>
@@ -4424,7 +4409,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4435,7 +4420,7 @@
         <v>80</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>82</v>
@@ -4447,17 +4432,19 @@
         <v>93</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>269</v>
+        <v>190</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="N23" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>82</v>
@@ -4494,56 +4481,56 @@
         <v>82</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="AB23" s="2"/>
       <c r="AC23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>82</v>
+        <v>276</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>82</v>
+        <v>277</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>273</v>
+        <v>82</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>82</v>
+        <v>278</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>276</v>
+        <v>82</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>82</v>
+        <v>281</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="B24" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="C24" t="s" s="2">
         <v>82</v>
       </c>
@@ -4555,7 +4542,7 @@
         <v>92</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>82</v>
@@ -4564,19 +4551,19 @@
         <v>93</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>82</v>
@@ -4601,29 +4588,29 @@
         <v>82</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="X24" s="2"/>
       <c r="Y24" t="s" s="2">
-        <v>82</v>
+        <v>283</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AB24" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AC24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>283</v>
+        <v>82</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>80</v>
@@ -4632,7 +4619,7 @@
         <v>92</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>104</v>
@@ -4641,28 +4628,26 @@
         <v>82</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
         <v>82</v>
       </c>
@@ -4674,28 +4659,28 @@
         <v>92</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>82</v>
@@ -4720,11 +4705,13 @@
         <v>82</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="X25" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="Y25" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>82</v>
@@ -4742,7 +4729,7 @@
         <v>82</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>80</v>
@@ -4751,7 +4738,7 @@
         <v>92</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>104</v>
@@ -4760,35 +4747,35 @@
         <v>82</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>285</v>
+        <v>82</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>286</v>
+        <v>135</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>288</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>82</v>
+        <v>295</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>82</v>
@@ -4800,19 +4787,19 @@
         <v>82</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>82</v>
@@ -4837,13 +4824,13 @@
         <v>82</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>82</v>
@@ -4861,16 +4848,16 @@
         <v>82</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>299</v>
+        <v>82</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>104</v>
@@ -4879,28 +4866,28 @@
         <v>82</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>82</v>
+        <v>302</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>135</v>
+        <v>303</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>82</v>
+        <v>305</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>302</v>
+        <v>82</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4910,7 +4897,7 @@
         <v>81</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>82</v>
@@ -4919,19 +4906,19 @@
         <v>82</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>197</v>
+        <v>307</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>82</v>
@@ -4956,13 +4943,13 @@
         <v>82</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>296</v>
+        <v>82</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>307</v>
+        <v>82</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>308</v>
+        <v>82</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>82</v>
@@ -4980,7 +4967,7 @@
         <v>82</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>80</v>
@@ -4998,24 +4985,24 @@
         <v>82</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>309</v>
+        <v>82</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>312</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5026,10 +5013,10 @@
         <v>80</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>82</v>
@@ -5038,7 +5025,7 @@
         <v>82</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>314</v>
+        <v>190</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>315</v>
@@ -5049,9 +5036,7 @@
       <c r="M28" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="N28" t="s" s="2">
-        <v>318</v>
-      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>82</v>
       </c>
@@ -5075,13 +5060,13 @@
         <v>82</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>82</v>
+        <v>318</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>82</v>
+        <v>319</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>82</v>
@@ -5099,13 +5084,13 @@
         <v>82</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>82</v>
@@ -5117,24 +5102,24 @@
         <v>82</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>82</v>
+        <v>320</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>82</v>
+        <v>323</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5157,18 +5142,20 @@
         <v>82</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>82</v>
       </c>
@@ -5192,13 +5179,13 @@
         <v>82</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>82</v>
@@ -5216,7 +5203,7 @@
         <v>82</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>80</v>
@@ -5234,24 +5221,24 @@
         <v>82</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>327</v>
+        <v>82</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>330</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5274,20 +5261,18 @@
         <v>82</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>197</v>
+        <v>334</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>335</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>82</v>
       </c>
@@ -5311,13 +5296,13 @@
         <v>82</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>213</v>
+        <v>82</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>336</v>
+        <v>82</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>337</v>
+        <v>82</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>82</v>
@@ -5335,7 +5320,7 @@
         <v>82</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>80</v>
@@ -5353,24 +5338,24 @@
         <v>82</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>82</v>
+        <v>338</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>82</v>
+        <v>341</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5393,16 +5378,16 @@
         <v>82</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5452,7 +5437,7 @@
         <v>82</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>80</v>
@@ -5470,24 +5455,24 @@
         <v>82</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5498,7 +5483,7 @@
         <v>80</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>82</v>
@@ -5510,18 +5495,20 @@
         <v>82</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>82</v>
       </c>
@@ -5569,42 +5556,42 @@
         <v>82</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>104</v>
+        <v>357</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>354</v>
+        <v>82</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>357</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5615,7 +5602,7 @@
         <v>80</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>82</v>
@@ -5627,20 +5614,16 @@
         <v>82</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>359</v>
+        <v>94</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M33" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="N33" t="s" s="2">
-        <v>363</v>
-      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>82</v>
       </c>
@@ -5688,31 +5671,31 @@
         <v>82</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>82</v>
@@ -5723,18 +5706,18 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>82</v>
@@ -5746,15 +5729,17 @@
         <v>82</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>368</v>
+        <v>139</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>82</v>
@@ -5803,19 +5788,19 @@
         <v>82</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>82</v>
@@ -5827,7 +5812,7 @@
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>82</v>
@@ -5838,11 +5823,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>150</v>
+        <v>369</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5855,24 +5840,26 @@
         <v>82</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>82</v>
       </c>
@@ -5920,7 +5907,7 @@
         <v>82</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>80</v>
@@ -5944,7 +5931,7 @@
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>371</v>
+        <v>135</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>82</v>
@@ -5955,43 +5942,39 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>377</v>
+        <v>82</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>137</v>
+        <v>374</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>82</v>
       </c>
@@ -6039,19 +6022,19 @@
         <v>82</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>82</v>
+        <v>377</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>82</v>
@@ -6060,10 +6043,10 @@
         <v>82</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>82</v>
+        <v>378</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>135</v>
+        <v>379</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>82</v>
@@ -6074,7 +6057,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6097,13 +6080,13 @@
         <v>82</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6154,7 +6137,7 @@
         <v>82</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>80</v>
@@ -6163,7 +6146,7 @@
         <v>92</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>104</v>
@@ -6175,10 +6158,10 @@
         <v>82</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>82</v>
@@ -6189,7 +6172,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6212,16 +6195,20 @@
         <v>82</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>382</v>
+        <v>190</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+        <v>386</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>388</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>82</v>
       </c>
@@ -6245,13 +6232,13 @@
         <v>82</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>82</v>
+        <v>389</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>82</v>
+        <v>390</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>82</v>
@@ -6269,7 +6256,7 @@
         <v>82</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>80</v>
@@ -6278,7 +6265,7 @@
         <v>92</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>385</v>
+        <v>82</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>104</v>
@@ -6287,13 +6274,13 @@
         <v>82</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>82</v>
+        <v>391</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>391</v>
+        <v>304</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>82</v>
@@ -6304,7 +6291,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6315,7 +6302,7 @@
         <v>80</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>82</v>
@@ -6327,19 +6314,19 @@
         <v>82</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>82</v>
@@ -6364,13 +6351,13 @@
         <v>82</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>116</v>
+        <v>206</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>82</v>
@@ -6388,13 +6375,13 @@
         <v>82</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>82</v>
@@ -6406,13 +6393,13 @@
         <v>82</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>82</v>
@@ -6423,7 +6410,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6434,7 +6421,7 @@
         <v>80</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>82</v>
@@ -6446,7 +6433,7 @@
         <v>82</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>197</v>
+        <v>401</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>402</v>
@@ -6454,11 +6441,9 @@
       <c r="L40" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="M40" s="2"/>
+      <c r="N40" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>82</v>
@@ -6483,13 +6468,13 @@
         <v>82</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>213</v>
+        <v>82</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>406</v>
+        <v>82</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>407</v>
+        <v>82</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>82</v>
@@ -6507,13 +6492,13 @@
         <v>82</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>82</v>
@@ -6525,13 +6510,13 @@
         <v>82</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>399</v>
+        <v>82</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>400</v>
+        <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>311</v>
+        <v>405</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>82</v>
@@ -6542,7 +6527,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6565,18 +6550,16 @@
         <v>82</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>409</v>
+        <v>94</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="M41" s="2"/>
-      <c r="N41" t="s" s="2">
-        <v>412</v>
-      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>82</v>
       </c>
@@ -6624,7 +6607,7 @@
         <v>82</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>80</v>
@@ -6645,10 +6628,10 @@
         <v>82</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>82</v>
+        <v>378</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>82</v>
@@ -6659,7 +6642,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6670,7 +6653,7 @@
         <v>80</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>82</v>
@@ -6679,18 +6662,20 @@
         <v>82</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>94</v>
+        <v>411</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>413</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>414</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>82</v>
@@ -6739,13 +6724,13 @@
         <v>82</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>82</v>
@@ -6760,10 +6745,10 @@
         <v>82</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>82</v>
@@ -6774,7 +6759,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6797,16 +6782,16 @@
         <v>93</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6856,7 +6841,7 @@
         <v>82</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>80</v>
@@ -6877,21 +6862,21 @@
         <v>82</v>
       </c>
       <c r="AL43" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AN43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO43" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO43" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="44" hidden="true">
-      <c r="A44" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6902,10 +6887,10 @@
         <v>80</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>82</v>
@@ -6914,18 +6899,20 @@
         <v>93</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="L44" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>82</v>
       </c>
@@ -6973,7 +6960,7 @@
         <v>82</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>80</v>
@@ -6994,10 +6981,10 @@
         <v>82</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>82</v>
@@ -7008,7 +6995,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7019,7 +7006,7 @@
         <v>80</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>82</v>
@@ -7028,23 +7015,19 @@
         <v>82</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>359</v>
+        <v>94</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>432</v>
+        <v>361</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>435</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>82</v>
       </c>
@@ -7092,19 +7075,19 @@
         <v>82</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>431</v>
+        <v>363</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>82</v>
@@ -7113,10 +7096,10 @@
         <v>82</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>436</v>
+        <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>437</v>
+        <v>364</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>82</v>
@@ -7127,18 +7110,18 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>82</v>
@@ -7150,15 +7133,17 @@
         <v>82</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>368</v>
+        <v>139</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>82</v>
@@ -7207,19 +7192,19 @@
         <v>82</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>82</v>
@@ -7231,7 +7216,7 @@
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>82</v>
@@ -7242,11 +7227,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>150</v>
+        <v>369</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7259,24 +7244,26 @@
         <v>82</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>82</v>
       </c>
@@ -7324,7 +7311,7 @@
         <v>82</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>80</v>
@@ -7348,7 +7335,7 @@
         <v>82</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>371</v>
+        <v>135</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>82</v>
@@ -7359,42 +7346,42 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>377</v>
+        <v>82</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>93</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>137</v>
+        <v>190</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>378</v>
+        <v>434</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>379</v>
+        <v>435</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>153</v>
+        <v>436</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>154</v>
+        <v>204</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>82</v>
@@ -7404,7 +7391,7 @@
         <v>82</v>
       </c>
       <c r="R48" t="s" s="2">
-        <v>82</v>
+        <v>437</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>82</v>
@@ -7419,13 +7406,13 @@
         <v>82</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>82</v>
+        <v>207</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>82</v>
+        <v>208</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>82</v>
@@ -7443,34 +7430,34 @@
         <v>82</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>380</v>
+        <v>433</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>82</v>
+        <v>438</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>82</v>
+        <v>211</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>135</v>
+        <v>212</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>82</v>
+        <v>213</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -7478,7 +7465,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7486,7 +7473,7 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>92</v>
@@ -7501,19 +7488,19 @@
         <v>93</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>443</v>
+        <v>272</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>211</v>
+        <v>274</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>82</v>
@@ -7538,34 +7525,32 @@
         <v>82</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>213</v>
+        <v>82</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>214</v>
+        <v>82</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>215</v>
+        <v>82</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="AB49" s="2"/>
       <c r="AC49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>82</v>
+        <v>276</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>92</v>
@@ -7580,26 +7565,28 @@
         <v>82</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>218</v>
+        <v>279</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>219</v>
+        <v>280</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>220</v>
+        <v>82</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>82</v>
+        <v>281</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="B50" s="2"/>
+        <v>439</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="C50" t="s" s="2">
         <v>82</v>
       </c>
@@ -7620,19 +7607,19 @@
         <v>93</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>447</v>
+        <v>190</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>82</v>
@@ -7657,13 +7644,11 @@
         <v>82</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="X50" s="2"/>
       <c r="Y50" t="s" s="2">
-        <v>82</v>
+        <v>443</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>82</v>
@@ -7681,7 +7666,7 @@
         <v>82</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>80</v>
@@ -7699,24 +7684,24 @@
         <v>82</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7739,19 +7724,19 @@
         <v>82</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>82</v>
@@ -7776,13 +7761,13 @@
         <v>82</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>82</v>
@@ -7800,7 +7785,7 @@
         <v>82</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>80</v>
@@ -7809,7 +7794,7 @@
         <v>92</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>104</v>
@@ -7824,7 +7809,7 @@
         <v>135</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>82</v>
@@ -7835,11 +7820,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7858,19 +7843,19 @@
         <v>82</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>82</v>
@@ -7895,13 +7880,13 @@
         <v>82</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>82</v>
@@ -7919,7 +7904,7 @@
         <v>82</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>80</v>
@@ -7937,24 +7922,24 @@
         <v>82</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7980,16 +7965,16 @@
         <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>82</v>
@@ -8038,7 +8023,7 @@
         <v>82</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>80</v>
@@ -8059,10 +8044,10 @@
         <v>82</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>82</v>

--- a/StructureDefinition-cbs-vaccination-ACIP-Recommendation.xlsx
+++ b/StructureDefinition-cbs-vaccination-ACIP-Recommendation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
